--- a/4XMMSSC/lowe_results/best_cand_tracker.xlsx
+++ b/4XMMSSC/lowe_results/best_cand_tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/do19150/Gits/ML_QPE/4XMMSSC/lowe_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB15936-7718-0E4D-9BFC-8DAAB8707B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70A5C34-6064-424F-89B0-EF77C6805885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="840" windowWidth="27640" windowHeight="16440" xr2:uid="{FE8D8C79-F1E5-814E-8450-6789ED9D9F92}"/>
+    <workbookView xWindow="1160" yWindow="820" windowWidth="27640" windowHeight="16440" xr2:uid="{FE8D8C79-F1E5-814E-8450-6789ED9D9F92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="71">
   <si>
     <t>OBSID</t>
   </si>
@@ -231,6 +231,27 @@
   </si>
   <si>
     <t>SSTSL2 J194237.76-101222.7</t>
+  </si>
+  <si>
+    <t>GAL_PLANE</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>POSSIBLY</t>
+  </si>
+  <si>
+    <t>ONLY_SOFT</t>
+  </si>
+  <si>
+    <t>QPE_LIKE</t>
   </si>
 </sst>
 </file>
@@ -246,12 +267,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -266,9 +299,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,20 +620,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC8D054-643E-774E-8ADD-153207C35AB8}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -613,10 +650,19 @@
         <v>38</v>
       </c>
       <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -635,8 +681,17 @@
       <c r="F2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -655,25 +710,40 @@
       <c r="F3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -692,8 +762,17 @@
       <c r="F5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -709,8 +788,20 @@
       <c r="E6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -729,8 +820,17 @@
       <c r="F7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -749,42 +849,63 @@
       <c r="F8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="F9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -803,8 +924,17 @@
       <c r="F11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -820,42 +950,66 @@
       <c r="E12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="F13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>5</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -871,8 +1025,20 @@
       <c r="E15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -888,25 +1054,43 @@
       <c r="E16" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>29</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -921,12 +1105,24 @@
       </c>
       <c r="E18" t="s">
         <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2 A4" numberStoredAsText="1"/>
+    <ignoredError sqref="A2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>